--- a/2025-03-03_4o-mini_feedback_sheets/overall_gen/Pill esophagitis_gen_overall.xlsx
+++ b/2025-03-03_4o-mini_feedback_sheets/overall_gen/Pill esophagitis_gen_overall.xlsx
@@ -462,110 +462,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Recent history of taking oral medications without sufficient water</t>
+          <t>Recent onset of chest pain after taking medication</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>This is a common cause of Pill esophagitis, as medications can become lodged in the esophagus and cause irritation.</t>
+          <t>Chest pain shortly after taking medication is a common symptom of pill esophagitis due to irritation of the esophageal lining.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Absence of symptoms after taking medications with plenty of water</t>
+          <t>Absence of recent medication use</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>If the patient does not experience symptoms when medications are taken with sufficient fluid, it argues against Pill esophagitis.</t>
+          <t>Without recent medication use, the likelihood of pill esophagitis is significantly reduced.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Symptoms of odynophagia (painful swallowing)</t>
+          <t>Dysphagia following ingestion of pills</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Odynophagia is a classic symptom of Pill esophagitis, indicating inflammation or irritation of the esophagus.</t>
+          <t>Difficulty swallowing after taking pills is indicative of esophageal irritation or damage, which is characteristic of pill esophagitis.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>No history of recent medication changes or new prescriptions</t>
+          <t>Symptoms present for a long duration without change</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>A lack of recent changes in medication suggests that there may not be a cause for Pill esophagitis.</t>
+          <t>Chronic symptoms without recent medication changes are less likely to be due to pill esophagitis, which typically presents acutely.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>History of taking large pills or capsules</t>
+          <t>Retrosternal pain that worsens with swallowing</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Larger pills are more likely to cause esophageal irritation if not taken with adequate fluid, supporting the diagnosis.</t>
+          <t>Pain behind the sternum that increases with swallowing is a classic symptom of esophageal irritation from pill esophagitis.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Symptoms improving with dietary changes or antacids</t>
+          <t>No association of symptoms with pill ingestion</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Improvement with dietary modifications or antacids may indicate a different etiology, such as gastroesophageal reflux disease, rather than Pill esophagitis.</t>
+          <t>If symptoms do not correlate with pill ingestion, it is less likely that they are caused by pill esophagitis.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Presence of retrosternal chest pain after taking medication</t>
+          <t>Recent use of medications known to cause esophagitis</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Retrosternal chest pain can indicate esophageal irritation or injury, which is consistent with Pill esophagitis.</t>
+          <t>Certain medications, such as NSAIDs or bisphosphonates, are known to cause esophagitis, increasing the likelihood of pill esophagitis.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>No history of esophageal disorders or previous episodes</t>
+          <t>Presence of symptoms typical of GERD</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>A lack of prior esophageal issues makes Pill esophagitis less likely, as it often occurs in individuals with a history of such conditions.</t>
+          <t>Symptoms such as heartburn and regurgitation are more indicative of gastroesophageal reflux disease (GERD) than pill esophagitis.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Symptoms worsening after taking specific medications</t>
+          <t>Symptoms began after lying down post-medication</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>If symptoms are directly correlated with the intake of certain medications, it strongly suggests Pill esophagitis.</t>
+          <t>Lying down after taking medication can cause pills to linger in the esophagus, leading to irritation and supporting a diagnosis of pill esophagitis.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Symptoms not localized to swallowing but rather generalized discomfort</t>
+          <t>Improvement of symptoms with antacids</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Generalized discomfort may suggest a different gastrointestinal issue rather than localized esophageal irritation from pills.</t>
+          <t>If symptoms improve with antacids, it suggests acid-related issues rather than pill-induced esophagitis.</t>
         </is>
       </c>
     </row>
@@ -613,110 +613,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>History of taking oral medications without sufficient water</t>
+          <t>Current use of medications known to cause esophagitis, such as doxycycline or bisphosphonates</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Patients with a history of taking pills without adequate fluid intake are at a higher risk for developing Pill esophagitis due to the potential for pills to become lodged in the esophagus.</t>
+          <t>These medications are well-documented to cause pill esophagitis due to their potential to irritate the esophageal lining if not taken with sufficient water or if the patient lies down immediately after ingestion.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>No history of taking medications that can cause esophageal irritation</t>
+          <t>Absence of medication use known to cause esophagitis</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Absence of medications known to cause Pill esophagitis suggests a lower likelihood of the condition being present.</t>
+          <t>Without the use of medications that are known to cause esophagitis, the likelihood of pill esophagitis is reduced.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Previous episodes of esophageal irritation or dysphagia</t>
+          <t>History of taking pills without adequate water</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>A history of esophageal irritation or difficulty swallowing can indicate a predisposition to Pill esophagitis, as these conditions may be exacerbated by medication use.</t>
+          <t>Taking pills without sufficient water increases the risk of them lodging in the esophagus, leading to irritation and esophagitis.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>No previous episodes of esophageal symptoms</t>
+          <t>Consistent use of adequate water with pill ingestion</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>A lack of prior esophageal symptoms indicates a lower risk for developing Pill esophagitis, as it suggests the esophagus has not been previously compromised.</t>
+          <t>Taking pills with sufficient water reduces the risk of them lodging in the esophagus, thereby decreasing the likelihood of pill esophagitis.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Use of medications known to cause esophageal irritation (e.g., doxycycline, potassium chloride)</t>
+          <t>History of esophageal motility disorders</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Certain medications are well-documented to cause esophageal irritation, making their use a strong indicator for the diagnosis of Pill esophagitis.</t>
+          <t>Esophageal motility disorders can predispose individuals to pill esophagitis by impairing the normal passage of pills through the esophagus.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>No history of gastrointestinal disorders</t>
+          <t>No history of esophageal motility disorders</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Absence of gastrointestinal disorders reduces the likelihood of esophageal complications, including Pill esophagitis.</t>
+          <t>The absence of esophageal motility disorders suggests a lower risk of pills becoming lodged in the esophagus.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>History of gastroesophageal reflux disease (GERD)</t>
+          <t>Previous episodes of pill esophagitis</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Patients with GERD may have a higher likelihood of developing Pill esophagitis due to the compromised integrity of the esophageal lining.</t>
+          <t>A history of previous episodes suggests a predisposition or repeated exposure to risk factors for pill esophagitis.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Current medications do not include known irritants</t>
+          <t>No previous episodes of pill esophagitis</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>If current medications do not include those known to irritate the esophagus, it supports the absence of Pill esophagitis.</t>
+          <t>Without a history of previous episodes, the likelihood of current pill esophagitis is reduced.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Prior surgical history involving the esophagus</t>
+          <t>Use of medications with a known risk of esophageal irritation</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Any surgical intervention on the esophagus may increase the risk of complications such as Pill esophagitis due to altered anatomy or motility.</t>
+          <t>Certain medications, such as NSAIDs or potassium chloride, are known to cause esophageal irritation, increasing the likelihood of pill esophagitis.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>No surgical history related to the esophagus or gastrointestinal tract</t>
+          <t>Use of liquid formulations instead of pills</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Lack of surgical history involving the esophagus suggests a lower risk for complications such as Pill esophagitis.</t>
+          <t>Using liquid formulations instead of pills reduces the risk of esophageal irritation and pill esophagitis.</t>
         </is>
       </c>
     </row>
@@ -764,110 +764,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Frequent use of medications that can cause esophageal irritation, such as NSAIDs or antibiotics</t>
+          <t>Use of medications known to cause esophagitis</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Patients who frequently use these medications are at a higher risk for developing Pill esophagitis due to the potential for mucosal injury.</t>
+          <t>Certain medications, such as NSAIDs, bisphosphonates, or antibiotics, are known to cause pill esophagitis, especially if taken without adequate water or before lying down.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Regularly consumes adequate amounts of water with medications</t>
+          <t>No history of medication use</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Patients who take medications with sufficient water are less likely to experience Pill esophagitis due to reduced risk of pill retention.</t>
+          <t>Pill esophagitis is unlikely in individuals who do not take medications, as the condition is directly related to pill ingestion.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>History of dry swallowing or taking pills without sufficient water</t>
+          <t>History of swallowing pills without water</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>This behavior increases the likelihood of pills becoming lodged in the esophagus, leading to irritation and inflammation.</t>
+          <t>Swallowing pills without sufficient water increases the risk of them lodging in the esophagus, leading to irritation and esophagitis.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>No history of esophageal symptoms or disorders</t>
+          <t>Consistent use of liquid medications</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>A lack of previous esophageal issues suggests a lower likelihood of developing Pill esophagitis.</t>
+          <t>Using liquid forms of medication reduces the risk of pill esophagitis, as there are no solid pills to cause irritation.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Living alone or having limited social support</t>
+          <t>Taking pills before bedtime</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Individuals with limited social support may be less likely to seek help for symptoms or may not be monitored for proper medication intake, increasing risk.</t>
+          <t>Taking pills right before lying down can increase the risk of them getting stuck in the esophagus, leading to esophagitis.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Engages in regular health check-ups and medication reviews</t>
+          <t>Adherence to proper pill-taking techniques</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Patients who actively manage their health are less likely to engage in behaviors that lead to Pill esophagitis.</t>
+          <t>Consistently taking pills with adequate water and remaining upright reduces the likelihood of pill esophagitis.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>History of gastroesophageal reflux disease (GERD)</t>
+          <t>Frequent use of medications in tablet form</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Patients with GERD may have a higher risk of esophageal irritation, which can be exacerbated by pill ingestion.</t>
+          <t>Frequent use of tablets, especially large ones, can increase the risk of pill esophagitis if not taken properly.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>No known allergies to medications that can cause esophageal irritation</t>
+          <t>Family history of esophageal conditions unrelated to pill ingestion</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Absence of allergies reduces the likelihood of adverse reactions that could lead to Pill esophagitis.</t>
+          <t>A family history of esophageal conditions not related to pill ingestion suggests other causes for esophageal symptoms, making pill esophagitis less likely.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Family history of esophageal disorders</t>
+          <t>Lack of awareness about proper pill ingestion</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>A genetic predisposition to esophageal conditions may increase the risk of developing Pill esophagitis.</t>
+          <t>Not being informed about the importance of taking pills with water and remaining upright can lead to improper ingestion practices, increasing the risk of esophagitis.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Maintains a healthy diet and lifestyle</t>
+          <t>Lifestyle factors that promote esophageal health</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>A healthy lifestyle can contribute to overall esophageal health, reducing the risk of Pill esophagitis.</t>
+          <t>Engaging in behaviors that promote esophageal health, such as a balanced diet and avoiding irritants, can reduce the risk of esophagitis.</t>
         </is>
       </c>
     </row>
@@ -915,110 +915,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Odynophagia (painful swallowing)</t>
+          <t>Odynophagia</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Odynophagia is a common symptom in patients with Pill esophagitis due to inflammation of the esophagus caused by pills.</t>
+          <t>Painful swallowing is a common symptom of esophageal irritation, which is consistent with Pill esophagitis.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Normal vital signs</t>
+          <t>Normal oropharyngeal examination</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Normal vital signs suggest that there is no significant systemic infection or severe inflammation, which would be expected in Pill esophagitis.</t>
+          <t>A normal examination of the oropharynx suggests that there is no irritation or injury in the upper esophagus, which might argue against Pill esophagitis.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Dysphagia (difficulty swallowing)</t>
+          <t>Retrosternal chest pain</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dysphagia can occur in Pill esophagitis as the esophagus becomes inflamed and narrowed, making swallowing difficult.</t>
+          <t>Chest pain located behind the sternum is often associated with esophageal irritation or injury, supporting the diagnosis of Pill esophagitis.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Absence of oral thrush</t>
+          <t>Absence of esophageal stricture</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Oral thrush is often associated with esophageal candidiasis, which can mimic symptoms of Pill esophagitis; its absence suggests a lower likelihood of esophageal inflammation.</t>
+          <t>The absence of esophageal narrowing or stricture on physical exam may suggest that chronic esophageal irritation is less likely.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Chest pain</t>
+          <t>Localized tenderness over the esophagus</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Patients may experience chest pain due to esophageal irritation or inflammation, which is characteristic of Pill esophagitis.</t>
+          <t>Tenderness upon palpation over the esophagus can indicate inflammation or irritation, which is consistent with Pill esophagitis.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>No signs of weight loss</t>
+          <t>No weight loss</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Weight loss is often seen in chronic cases of esophageal conditions; its absence may indicate that the patient is not experiencing significant dysphagia or odynophagia.</t>
+          <t>Weight loss can be a sign of chronic esophageal conditions, so its absence might argue against a significant esophageal issue like Pill esophagitis.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Fever</t>
+          <t>Absence of fever</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fever may be present if there is an associated infection or significant inflammation in the esophagus.</t>
+          <t>Fever is not typically associated with Pill esophagitis, so its absence supports the diagnosis.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Normal abdominal exam</t>
+          <t>Normal abdominal examination</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>A normal abdominal exam suggests that there are no gastrointestinal complications or systemic issues that could be associated with Pill esophagitis.</t>
+          <t>A normal abdominal exam suggests that gastrointestinal causes of symptoms are less likely, which might argue against esophageal involvement.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Signs of dehydration</t>
+          <t>Normal lung auscultation</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Dehydration can occur if the patient avoids swallowing due to pain, which is often seen in Pill esophagitis.</t>
+          <t>Normal lung sounds suggest that respiratory causes of chest pain are less likely, supporting an esophageal cause like Pill esophagitis.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>No history of recent pill ingestion</t>
+          <t>No signs of systemic infection</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>A lack of recent pill ingestion reduces the likelihood of Pill esophagitis, as the condition is directly related to the ingestion of certain medications.</t>
+          <t>Systemic signs of infection, such as fever or elevated heart rate, are not typically associated with Pill esophagitis, so their absence does not strongly argue against it.</t>
         </is>
       </c>
     </row>
@@ -1066,110 +1066,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Endoscopic findings of mucosal damage</t>
+          <t>Endoscopic finding of localized ulceration in the mid-esophagus</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Endoscopy may reveal localized ulcerations or erosions in the esophagus, which are characteristic of pill esophagitis.</t>
+          <t>This finding is highly specific for pill esophagitis as pills often lodge in the mid-esophagus, causing localized damage.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Normal endoscopic findings</t>
+          <t>Normal endoscopy</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>If endoscopy shows no mucosal damage or abnormalities, it strongly argues against pill esophagitis.</t>
+          <t>A normal endoscopy is strong evidence against pill esophagitis, as it typically shows visible mucosal damage.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Histological evidence of inflammation</t>
+          <t>Endoscopic evidence of discrete esophageal ulcers</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Biopsy results may show eosinophilic infiltration or other inflammatory changes consistent with pill esophagitis.</t>
+          <t>Discrete ulcers are more characteristic of pill esophagitis compared to other causes of esophagitis, which may present with more diffuse inflammation.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Negative biopsy results</t>
+          <t>Diffuse esophagitis on endoscopy</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>A biopsy that shows no signs of inflammation or eosinophils would suggest that pill esophagitis is not present.</t>
+          <t>Diffuse esophagitis is more indicative of other causes like reflux esophagitis rather than pill esophagitis, which is usually localized.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Presence of foreign body on imaging</t>
+          <t>Biopsy showing necrosis and inflammation localized to the mid-esophagus</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Imaging studies may show retained pills or foreign bodies in the esophagus, supporting the diagnosis of pill esophagitis.</t>
+          <t>Biopsy findings of necrosis and inflammation in the mid-esophagus are indicative of pill-induced damage.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Absence of foreign body on imaging</t>
+          <t>Biopsy showing eosinophilic infiltration</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Imaging that does not reveal any retained pills or foreign bodies would argue against the diagnosis.</t>
+          <t>Eosinophilic infiltration is more suggestive of eosinophilic esophagitis rather than pill esophagitis.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Esophageal pH monitoring showing acid exposure</t>
+          <t>Barium swallow showing a localized esophageal stricture</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Increased acid exposure may be noted, which can contribute to mucosal injury in pill esophagitis.</t>
+          <t>A localized stricture in the mid-esophagus on barium swallow can result from chronic pill esophagitis.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Normal esophageal motility studies</t>
+          <t>Barium swallow showing diffuse esophageal motility disorder</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Normal motility studies would suggest that there is no underlying esophageal dysfunction contributing to symptoms.</t>
+          <t>Diffuse motility disorders are not typical of pill esophagitis, which usually causes localized findings.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Response to discontinuation of offending medication</t>
+          <t>CT scan showing localized esophageal wall thickening</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Improvement of symptoms after stopping the medication associated with pill esophagitis supports the diagnosis.</t>
+          <t>Localized thickening of the esophageal wall on CT scan can suggest pill esophagitis due to localized inflammation.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Lack of symptom improvement after medication cessation</t>
+          <t>CT scan showing diffuse esophageal wall thickening</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>If symptoms do not improve after stopping the suspected offending medication, it raises doubt about the diagnosis of pill esophagitis.</t>
+          <t>Diffuse thickening of the esophageal wall is more consistent with other types of esophagitis rather than pill esophagitis.</t>
         </is>
       </c>
     </row>
